--- a/BalanceSheet/PPL_bal.xlsx
+++ b/BalanceSheet/PPL_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>361000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>351000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-7000000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13000000.0</v>
+        <v>320000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>332000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>295000000.0</v>
@@ -1648,19 +1648,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>45000000.0</v>
+        <v>965000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>63000000.0</v>
+        <v>864000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>804000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-63000000.0</v>
+        <v>833000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>39000000.0</v>
+        <v>956000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>846000000.0</v>
@@ -2764,19 +2764,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>47000000.0</v>
+        <v>3690000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>186000000.0</v>
+        <v>3691000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>63000000.0</v>
+        <v>3402000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>106000000.0</v>
+        <v>3340000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>52000000.0</v>
+        <v>3212000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>3200000000.0</v>
